--- a/Team-Data/2020-21/1-7-2020-21.xlsx
+++ b/Team-Data/2020-21/1-7-2020-21.xlsx
@@ -2195,7 +2195,7 @@
         <v>16</v>
       </c>
       <c r="CL2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CM2" t="n">
         <v>15</v>
@@ -2213,10 +2213,10 @@
         <v>15</v>
       </c>
       <c r="CR2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CS2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="CT2" t="n">
         <v>6</v>
@@ -2316,7 +2316,7 @@
         <v>15</v>
       </c>
       <c r="DY2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="DZ2" t="n">
         <v>2</v>
@@ -2328,7 +2328,7 @@
         <v>29</v>
       </c>
       <c r="EC2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="ED2" t="n">
         <v>10</v>
@@ -2640,7 +2640,7 @@
         <v>7</v>
       </c>
       <c r="HY2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="HZ2" t="n">
         <v>28</v>
@@ -3049,16 +3049,16 @@
         <v>111.3</v>
       </c>
       <c r="BN3" t="n">
-        <v>112.8</v>
+        <v>112.7</v>
       </c>
       <c r="BO3" t="n">
-        <v>108.9</v>
+        <v>108.7</v>
       </c>
       <c r="BP3" t="n">
-        <v>111.5</v>
+        <v>111.4</v>
       </c>
       <c r="BQ3" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="BR3" t="n">
         <v>1.2</v>
@@ -3073,13 +3073,13 @@
         <v>17</v>
       </c>
       <c r="BV3" t="n">
-        <v>0.301</v>
+        <v>0.298</v>
       </c>
       <c r="BW3" t="n">
         <v>0.725</v>
       </c>
       <c r="BX3" t="n">
-        <v>0.513</v>
+        <v>0.511</v>
       </c>
       <c r="BY3" t="n">
         <v>0.151</v>
@@ -3091,16 +3091,16 @@
         <v>0.576</v>
       </c>
       <c r="CB3" t="n">
-        <v>101.9</v>
+        <v>102</v>
       </c>
       <c r="CC3" t="n">
-        <v>100</v>
+        <v>100.11</v>
       </c>
       <c r="CD3" t="n">
-        <v>83.33</v>
+        <v>83.43000000000001</v>
       </c>
       <c r="CE3" t="n">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="CF3" t="n">
         <v>0.506</v>
@@ -3121,7 +3121,7 @@
         <v>3</v>
       </c>
       <c r="CL3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="CM3" t="n">
         <v>21</v>
@@ -3139,7 +3139,7 @@
         <v>18</v>
       </c>
       <c r="CR3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="CS3" t="n">
         <v>23</v>
@@ -3203,7 +3203,7 @@
         <v>0.151</v>
       </c>
       <c r="DL3" t="n">
-        <v>0.301</v>
+        <v>0.298</v>
       </c>
       <c r="DM3" t="n">
         <v>0.539</v>
@@ -3212,7 +3212,7 @@
         <v>0.276</v>
       </c>
       <c r="DO3" t="n">
-        <v>0.148</v>
+        <v>0.149</v>
       </c>
       <c r="DP3" t="n">
         <v>0.275</v>
@@ -3242,7 +3242,7 @@
         <v>20</v>
       </c>
       <c r="DY3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="DZ3" t="n">
         <v>22</v>
@@ -3251,7 +3251,7 @@
         <v>19</v>
       </c>
       <c r="EB3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="EC3" t="n">
         <v>23</v>
@@ -3518,7 +3518,7 @@
         <v>48</v>
       </c>
       <c r="HI3" t="n">
-        <v>111.5</v>
+        <v>111.4</v>
       </c>
       <c r="HJ3" t="n">
         <v>33.1</v>
@@ -3648,16 +3648,16 @@
         <v>8.9</v>
       </c>
       <c r="IY3" t="n">
-        <v>32.6</v>
+        <v>32.7</v>
       </c>
       <c r="IZ3" t="n">
-        <v>41.4</v>
+        <v>41.6</v>
       </c>
       <c r="JA3" t="n">
         <v>23.2</v>
       </c>
       <c r="JB3" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="JC3" t="n">
         <v>7.7</v>
@@ -8538,7 +8538,7 @@
         <v>15</v>
       </c>
       <c r="AS9" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AT9" t="n">
         <v>25</v>
@@ -8807,7 +8807,7 @@
         <v>22</v>
       </c>
       <c r="EB9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="EC9" t="n">
         <v>13</v>
@@ -9119,7 +9119,7 @@
         <v>28</v>
       </c>
       <c r="HX9" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="HY9" t="n">
         <v>13</v>
@@ -9386,16 +9386,16 @@
         <v>11.4</v>
       </c>
       <c r="S10" t="n">
-        <v>32.6</v>
+        <v>32.8</v>
       </c>
       <c r="T10" t="n">
-        <v>44</v>
+        <v>44.1</v>
       </c>
       <c r="U10" t="n">
         <v>24</v>
       </c>
       <c r="V10" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="W10" t="n">
         <v>7.6</v>
@@ -9473,7 +9473,7 @@
         <v>18</v>
       </c>
       <c r="AV10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW10" t="n">
         <v>16</v>
@@ -9528,19 +9528,19 @@
         <v>394</v>
       </c>
       <c r="BM10" t="n">
-        <v>105.3</v>
+        <v>105.2</v>
       </c>
       <c r="BN10" t="n">
-        <v>108.1</v>
+        <v>108</v>
       </c>
       <c r="BO10" t="n">
         <v>113.1</v>
       </c>
       <c r="BP10" t="n">
-        <v>114.8</v>
+        <v>114.7</v>
       </c>
       <c r="BQ10" t="n">
-        <v>-7.8</v>
+        <v>-7.9</v>
       </c>
       <c r="BR10" t="n">
         <v>-6.7</v>
@@ -9549,7 +9549,7 @@
         <v>0.598</v>
       </c>
       <c r="BT10" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="BU10" t="n">
         <v>16.9</v>
@@ -9558,13 +9558,13 @@
         <v>0.28</v>
       </c>
       <c r="BW10" t="n">
-        <v>0.736</v>
+        <v>0.739</v>
       </c>
       <c r="BX10" t="n">
-        <v>0.486</v>
+        <v>0.487</v>
       </c>
       <c r="BY10" t="n">
-        <v>0.132</v>
+        <v>0.133</v>
       </c>
       <c r="BZ10" t="n">
         <v>0.499</v>
@@ -9573,16 +9573,16 @@
         <v>0.538</v>
       </c>
       <c r="CB10" t="n">
-        <v>102.9</v>
+        <v>103</v>
       </c>
       <c r="CC10" t="n">
-        <v>100.81</v>
+        <v>100.93</v>
       </c>
       <c r="CD10" t="n">
-        <v>84.01000000000001</v>
+        <v>84.11</v>
       </c>
       <c r="CE10" t="n">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="CF10" t="n">
         <v>0.45</v>
@@ -9615,7 +9615,7 @@
         <v>17</v>
       </c>
       <c r="CP10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CQ10" t="n">
         <v>21</v>
@@ -9624,7 +9624,7 @@
         <v>9</v>
       </c>
       <c r="CS10" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="CT10" t="n">
         <v>19</v>
@@ -9639,7 +9639,7 @@
         <v>26</v>
       </c>
       <c r="CX10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="CY10" t="n">
         <v>29</v>
@@ -9682,7 +9682,7 @@
         <v>0.24</v>
       </c>
       <c r="DK10" t="n">
-        <v>0.132</v>
+        <v>0.133</v>
       </c>
       <c r="DL10" t="n">
         <v>0.28</v>
@@ -9694,10 +9694,10 @@
         <v>0.275</v>
       </c>
       <c r="DO10" t="n">
-        <v>0.163</v>
+        <v>0.162</v>
       </c>
       <c r="DP10" t="n">
-        <v>0.264</v>
+        <v>0.261</v>
       </c>
       <c r="DQ10" t="n">
         <v>8</v>
@@ -9736,7 +9736,7 @@
         <v>5</v>
       </c>
       <c r="EC10" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="ED10" t="n">
         <v>10</v>
@@ -10000,13 +10000,13 @@
         <v>49.3</v>
       </c>
       <c r="HI10" t="n">
-        <v>114.8</v>
+        <v>114.7</v>
       </c>
       <c r="HJ10" t="n">
-        <v>32.6</v>
+        <v>32.8</v>
       </c>
       <c r="HK10" t="n">
-        <v>0.736</v>
+        <v>0.739</v>
       </c>
       <c r="HL10" t="n">
         <v>7.6</v>
@@ -10048,7 +10048,7 @@
         <v>28</v>
       </c>
       <c r="HY10" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="HZ10" t="n">
         <v>16</v>
@@ -12417,7 +12417,7 @@
         <v>8</v>
       </c>
       <c r="CX13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="CY13" t="n">
         <v>6</v>
@@ -14838,7 +14838,7 @@
         <v>7</v>
       </c>
       <c r="JY15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="JZ15" t="n">
         <v>4</v>
@@ -17023,7 +17023,7 @@
         <v>18</v>
       </c>
       <c r="CP18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CQ18" t="n">
         <v>7</v>
@@ -23493,7 +23493,7 @@
         <v>16</v>
       </c>
       <c r="CL25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="CM25" t="n">
         <v>7</v>
@@ -24283,7 +24283,7 @@
         <v>14</v>
       </c>
       <c r="AT26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU26" t="n">
         <v>26</v>
@@ -24440,7 +24440,7 @@
         <v>21</v>
       </c>
       <c r="CS26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="CT26" t="n">
         <v>21</v>
@@ -24552,7 +24552,7 @@
         <v>23</v>
       </c>
       <c r="EC26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="ED26" t="n">
         <v>10</v>
@@ -24864,7 +24864,7 @@
         <v>14</v>
       </c>
       <c r="HY26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="HZ26" t="n">
         <v>12</v>
@@ -28141,7 +28141,7 @@
         <v>29</v>
       </c>
       <c r="CR30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CS30" t="n">
         <v>10</v>
@@ -28244,7 +28244,7 @@
         <v>23</v>
       </c>
       <c r="DY30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="DZ30" t="n">
         <v>15</v>

--- a/Team-Data/2020-21/1-7-2020-21.xlsx
+++ b/Team-Data/2020-21/1-7-2020-21.xlsx
@@ -811,28 +811,28 @@
         <v>4.3</v>
       </c>
       <c r="AD2" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AE2" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AF2" t="n">
         <v>10</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AH2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI2" t="n">
         <v>15</v>
       </c>
       <c r="AJ2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL2" t="n">
         <v>9</v>
@@ -847,10 +847,10 @@
         <v>3</v>
       </c>
       <c r="AP2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR2" t="n">
         <v>5</v>
@@ -862,7 +862,7 @@
         <v>2</v>
       </c>
       <c r="AU2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV2" t="n">
         <v>16</v>
@@ -883,7 +883,7 @@
         <v>13</v>
       </c>
       <c r="BB2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC2" t="n">
         <v>7</v>
@@ -898,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-7-2020-21</t>
+          <t>2021-01-07</t>
         </is>
       </c>
     </row>
@@ -999,19 +999,19 @@
         <v>2</v>
       </c>
       <c r="AF3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI3" t="n">
         <v>5</v>
       </c>
       <c r="AJ3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK3" t="n">
         <v>6</v>
@@ -1038,7 +1038,7 @@
         <v>4</v>
       </c>
       <c r="AS3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AT3" t="n">
         <v>14</v>
@@ -1047,22 +1047,22 @@
         <v>19</v>
       </c>
       <c r="AV3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX3" t="n">
         <v>2</v>
       </c>
       <c r="AY3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BB3" t="n">
         <v>13</v>
@@ -1080,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-7-2020-21</t>
+          <t>2021-01-07</t>
         </is>
       </c>
     </row>
@@ -1097,88 +1097,88 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F4" t="n">
         <v>4</v>
       </c>
       <c r="G4" t="n">
-        <v>0.556</v>
+        <v>0.5</v>
       </c>
       <c r="H4" t="n">
         <v>48.6</v>
       </c>
       <c r="I4" t="n">
-        <v>42.7</v>
+        <v>42.5</v>
       </c>
       <c r="J4" t="n">
-        <v>89.7</v>
+        <v>88.8</v>
       </c>
       <c r="K4" t="n">
-        <v>0.476</v>
+        <v>0.479</v>
       </c>
       <c r="L4" t="n">
         <v>14.4</v>
       </c>
       <c r="M4" t="n">
-        <v>37.3</v>
+        <v>37.4</v>
       </c>
       <c r="N4" t="n">
-        <v>0.387</v>
+        <v>0.385</v>
       </c>
       <c r="O4" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="P4" t="n">
-        <v>25.2</v>
+        <v>24.8</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.793</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="R4" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="S4" t="n">
-        <v>38.3</v>
+        <v>38.5</v>
       </c>
       <c r="T4" t="n">
         <v>47.9</v>
       </c>
       <c r="U4" t="n">
-        <v>25.7</v>
+        <v>25.1</v>
       </c>
       <c r="V4" t="n">
-        <v>15.8</v>
+        <v>16.1</v>
       </c>
       <c r="W4" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="X4" t="n">
         <v>6.4</v>
       </c>
       <c r="Y4" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="Z4" t="n">
-        <v>20.4</v>
+        <v>20.9</v>
       </c>
       <c r="AA4" t="n">
-        <v>21.9</v>
+        <v>21.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>119.8</v>
+        <v>119.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.800000000000001</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AD4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AF4" t="n">
         <v>10</v>
@@ -1187,16 +1187,16 @@
         <v>10</v>
       </c>
       <c r="AH4" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AI4" t="n">
         <v>7</v>
       </c>
       <c r="AJ4" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AK4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AL4" t="n">
         <v>5</v>
@@ -1205,43 +1205,43 @@
         <v>10</v>
       </c>
       <c r="AN4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AO4" t="n">
         <v>6</v>
       </c>
-      <c r="AO4" t="n">
-        <v>7</v>
-      </c>
       <c r="AP4" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AQ4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AR4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AS4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AT4" t="n">
         <v>7</v>
       </c>
       <c r="AU4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AX4" t="n">
         <v>4</v>
       </c>
       <c r="AY4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ4" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="BA4" t="n">
         <v>9</v>
@@ -1250,7 +1250,7 @@
         <v>3</v>
       </c>
       <c r="BC4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-7-2020-21</t>
+          <t>2021-01-07</t>
         </is>
       </c>
     </row>
@@ -1357,37 +1357,37 @@
         <v>-3.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AE5" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AF5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI5" t="n">
         <v>26</v>
       </c>
       <c r="AJ5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL5" t="n">
         <v>14</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>28</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>15</v>
       </c>
       <c r="AM5" t="n">
         <v>14</v>
       </c>
       <c r="AN5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO5" t="n">
         <v>18</v>
@@ -1411,7 +1411,7 @@
         <v>1</v>
       </c>
       <c r="AV5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW5" t="n">
         <v>3</v>
@@ -1423,16 +1423,16 @@
         <v>16</v>
       </c>
       <c r="AZ5" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA5" t="n">
         <v>20</v>
       </c>
       <c r="BB5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BC5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1444,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-7-2020-21</t>
+          <t>2021-01-07</t>
         </is>
       </c>
     </row>
@@ -1542,22 +1542,22 @@
         <v>1</v>
       </c>
       <c r="AE6" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AF6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AH6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK6" t="n">
         <v>14</v>
@@ -1578,7 +1578,7 @@
         <v>10</v>
       </c>
       <c r="AQ6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR6" t="n">
         <v>21</v>
@@ -1587,7 +1587,7 @@
         <v>16</v>
       </c>
       <c r="AT6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU6" t="n">
         <v>17</v>
@@ -1599,19 +1599,19 @@
         <v>19</v>
       </c>
       <c r="AX6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AY6" t="n">
         <v>7</v>
       </c>
       <c r="AZ6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BA6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BC6" t="n">
         <v>27</v>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-7-2020-21</t>
+          <t>2021-01-07</t>
         </is>
       </c>
     </row>
@@ -1643,58 +1643,58 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F7" t="n">
         <v>4</v>
       </c>
       <c r="G7" t="n">
-        <v>0.556</v>
+        <v>0.5</v>
       </c>
       <c r="H7" t="n">
-        <v>49.1</v>
+        <v>49.3</v>
       </c>
       <c r="I7" t="n">
-        <v>39.3</v>
+        <v>39.8</v>
       </c>
       <c r="J7" t="n">
-        <v>87.40000000000001</v>
+        <v>88.5</v>
       </c>
       <c r="K7" t="n">
-        <v>0.45</v>
+        <v>0.449</v>
       </c>
       <c r="L7" t="n">
-        <v>9.9</v>
+        <v>9.5</v>
       </c>
       <c r="M7" t="n">
-        <v>27.9</v>
+        <v>27.6</v>
       </c>
       <c r="N7" t="n">
-        <v>0.355</v>
+        <v>0.344</v>
       </c>
       <c r="O7" t="n">
-        <v>13.6</v>
+        <v>14.1</v>
       </c>
       <c r="P7" t="n">
-        <v>20.3</v>
+        <v>20.9</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.667</v>
+        <v>0.677</v>
       </c>
       <c r="R7" t="n">
-        <v>10.8</v>
+        <v>11.3</v>
       </c>
       <c r="S7" t="n">
-        <v>33.1</v>
+        <v>33.5</v>
       </c>
       <c r="T7" t="n">
-        <v>43.9</v>
+        <v>44.8</v>
       </c>
       <c r="U7" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="V7" t="n">
         <v>16</v>
@@ -1703,100 +1703,100 @@
         <v>10.9</v>
       </c>
       <c r="X7" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="Z7" t="n">
-        <v>19.4</v>
+        <v>20.1</v>
       </c>
       <c r="AA7" t="n">
-        <v>19.2</v>
+        <v>19.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>102.1</v>
+        <v>103.1</v>
       </c>
       <c r="AC7" t="n">
-        <v>-1.2</v>
+        <v>-1.9</v>
       </c>
       <c r="AD7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH7" t="n">
         <v>1</v>
       </c>
-      <c r="AE7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>3</v>
-      </c>
       <c r="AI7" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AJ7" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AK7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL7" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AM7" t="n">
         <v>29</v>
       </c>
       <c r="AN7" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AO7" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AP7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ7" t="n">
         <v>30</v>
       </c>
       <c r="AR7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS7" t="n">
         <v>25</v>
       </c>
       <c r="AT7" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AU7" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AV7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW7" t="n">
         <v>1</v>
       </c>
       <c r="AX7" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AY7" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AZ7" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BB7" t="n">
         <v>29</v>
       </c>
       <c r="BC7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1808,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-7-2020-21</t>
+          <t>2021-01-07</t>
         </is>
       </c>
     </row>
@@ -1825,127 +1825,127 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F8" t="n">
         <v>4</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5</v>
+        <v>0.429</v>
       </c>
       <c r="H8" t="n">
-        <v>48.6</v>
+        <v>48</v>
       </c>
       <c r="I8" t="n">
-        <v>38.3</v>
+        <v>37.7</v>
       </c>
       <c r="J8" t="n">
-        <v>84.8</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="K8" t="n">
-        <v>0.451</v>
+        <v>0.447</v>
       </c>
       <c r="L8" t="n">
-        <v>12.9</v>
+        <v>12.4</v>
       </c>
       <c r="M8" t="n">
-        <v>38.8</v>
+        <v>38.6</v>
       </c>
       <c r="N8" t="n">
-        <v>0.332</v>
+        <v>0.322</v>
       </c>
       <c r="O8" t="n">
-        <v>20.4</v>
+        <v>19.9</v>
       </c>
       <c r="P8" t="n">
-        <v>26.6</v>
+        <v>26</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.765</v>
+        <v>0.764</v>
       </c>
       <c r="R8" t="n">
-        <v>8.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="S8" t="n">
-        <v>34.9</v>
+        <v>34.6</v>
       </c>
       <c r="T8" t="n">
-        <v>43</v>
+        <v>42.9</v>
       </c>
       <c r="U8" t="n">
-        <v>22.3</v>
+        <v>21.6</v>
       </c>
       <c r="V8" t="n">
         <v>13.3</v>
       </c>
       <c r="W8" t="n">
-        <v>8.800000000000001</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X8" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="Z8" t="n">
-        <v>22.4</v>
+        <v>22.6</v>
       </c>
       <c r="AA8" t="n">
-        <v>23.8</v>
+        <v>23.3</v>
       </c>
       <c r="AB8" t="n">
-        <v>109.8</v>
+        <v>107.7</v>
       </c>
       <c r="AC8" t="n">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="AE8" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AF8" t="n">
         <v>10</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AH8" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AI8" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ8" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AK8" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AL8" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AM8" t="n">
         <v>6</v>
       </c>
       <c r="AN8" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AO8" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AP8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AQ8" t="n">
         <v>15</v>
       </c>
       <c r="AR8" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AS8" t="n">
         <v>17</v>
@@ -1954,28 +1954,28 @@
         <v>21</v>
       </c>
       <c r="AU8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AV8" t="n">
         <v>3</v>
       </c>
       <c r="AW8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX8" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AY8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AZ8" t="n">
         <v>25</v>
       </c>
       <c r="BA8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BC8" t="n">
         <v>9</v>
@@ -1990,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-7-2020-21</t>
+          <t>2021-01-07</t>
         </is>
       </c>
     </row>
@@ -2007,121 +2007,121 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9" t="n">
         <v>3</v>
       </c>
       <c r="F9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G9" t="n">
-        <v>0.375</v>
+        <v>0.429</v>
       </c>
       <c r="H9" t="n">
-        <v>49.3</v>
+        <v>48.7</v>
       </c>
       <c r="I9" t="n">
-        <v>42.8</v>
+        <v>42.7</v>
       </c>
       <c r="J9" t="n">
-        <v>87.59999999999999</v>
+        <v>86.3</v>
       </c>
       <c r="K9" t="n">
-        <v>0.488</v>
+        <v>0.495</v>
       </c>
       <c r="L9" t="n">
-        <v>12.3</v>
+        <v>11.9</v>
       </c>
       <c r="M9" t="n">
-        <v>33.4</v>
+        <v>31.9</v>
       </c>
       <c r="N9" t="n">
-        <v>0.367</v>
+        <v>0.372</v>
       </c>
       <c r="O9" t="n">
-        <v>19.3</v>
+        <v>19.7</v>
       </c>
       <c r="P9" t="n">
-        <v>26.3</v>
+        <v>27</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.733</v>
+        <v>0.73</v>
       </c>
       <c r="R9" t="n">
-        <v>9.800000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="S9" t="n">
-        <v>32.6</v>
+        <v>31.9</v>
       </c>
       <c r="T9" t="n">
-        <v>42.4</v>
+        <v>41.7</v>
       </c>
       <c r="U9" t="n">
-        <v>27.5</v>
+        <v>27.9</v>
       </c>
       <c r="V9" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="W9" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="X9" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="Y9" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="Z9" t="n">
-        <v>21.4</v>
+        <v>20.6</v>
       </c>
       <c r="AA9" t="n">
-        <v>24.1</v>
+        <v>24.6</v>
       </c>
       <c r="AB9" t="n">
         <v>117</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD9" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="AE9" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AF9" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AH9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AI9" t="n">
         <v>6</v>
       </c>
       <c r="AJ9" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AK9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AL9" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AM9" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AN9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO9" t="n">
         <v>9</v>
       </c>
       <c r="AP9" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AQ9" t="n">
         <v>25</v>
@@ -2130,28 +2130,28 @@
         <v>15</v>
       </c>
       <c r="AS9" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AT9" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AU9" t="n">
         <v>3</v>
       </c>
       <c r="AV9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>20</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ9" t="n">
         <v>15</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>20</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>22</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>21</v>
       </c>
       <c r="BA9" t="n">
         <v>1</v>
@@ -2160,7 +2160,7 @@
         <v>4</v>
       </c>
       <c r="BC9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2172,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-7-2020-21</t>
+          <t>2021-01-07</t>
         </is>
       </c>
     </row>
@@ -2234,16 +2234,16 @@
         <v>11.4</v>
       </c>
       <c r="S10" t="n">
-        <v>32.6</v>
+        <v>32.8</v>
       </c>
       <c r="T10" t="n">
-        <v>44</v>
+        <v>44.1</v>
       </c>
       <c r="U10" t="n">
         <v>24</v>
       </c>
       <c r="V10" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="W10" t="n">
         <v>7.6</v>
@@ -2267,7 +2267,7 @@
         <v>-7.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AE10" t="n">
         <v>29</v>
@@ -2282,10 +2282,10 @@
         <v>1</v>
       </c>
       <c r="AI10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK10" t="n">
         <v>29</v>
@@ -2297,7 +2297,7 @@
         <v>7</v>
       </c>
       <c r="AN10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO10" t="n">
         <v>14</v>
@@ -2306,7 +2306,7 @@
         <v>16</v>
       </c>
       <c r="AQ10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR10" t="n">
         <v>7</v>
@@ -2315,31 +2315,31 @@
         <v>28</v>
       </c>
       <c r="AT10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU10" t="n">
         <v>18</v>
       </c>
       <c r="AV10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AY10" t="n">
         <v>24</v>
       </c>
       <c r="AZ10" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA10" t="n">
         <v>9</v>
       </c>
-      <c r="BA10" t="n">
-        <v>10</v>
-      </c>
       <c r="BB10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC10" t="n">
         <v>28</v>
@@ -2354,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-7-2020-21</t>
+          <t>2021-01-07</t>
         </is>
       </c>
     </row>
@@ -2449,22 +2449,22 @@
         <v>-5</v>
       </c>
       <c r="AD11" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AE11" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AF11" t="n">
         <v>10</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AH11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ11" t="n">
         <v>9</v>
@@ -2485,16 +2485,16 @@
         <v>1</v>
       </c>
       <c r="AP11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR11" t="n">
         <v>26</v>
       </c>
       <c r="AS11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT11" t="n">
         <v>19</v>
@@ -2536,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-7-2020-21</t>
+          <t>2021-01-07</t>
         </is>
       </c>
     </row>
@@ -2643,7 +2643,7 @@
         <v>25</v>
       </c>
       <c r="AH12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI12" t="n">
         <v>25</v>
@@ -2655,13 +2655,13 @@
         <v>11</v>
       </c>
       <c r="AL12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM12" t="n">
         <v>12</v>
       </c>
       <c r="AN12" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO12" t="n">
         <v>2</v>
@@ -2670,7 +2670,7 @@
         <v>3</v>
       </c>
       <c r="AQ12" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AR12" t="n">
         <v>27</v>
@@ -2685,7 +2685,7 @@
         <v>30</v>
       </c>
       <c r="AV12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AW12" t="n">
         <v>17</v>
@@ -2718,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-7-2020-21</t>
+          <t>2021-01-07</t>
         </is>
       </c>
     </row>
@@ -2813,28 +2813,28 @@
         <v>6.8</v>
       </c>
       <c r="AD13" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AE13" t="n">
         <v>2</v>
       </c>
       <c r="AF13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG13" t="n">
         <v>2</v>
       </c>
       <c r="AH13" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AI13" t="n">
         <v>3</v>
       </c>
       <c r="AJ13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL13" t="n">
         <v>17</v>
@@ -2846,7 +2846,7 @@
         <v>14</v>
       </c>
       <c r="AO13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP13" t="n">
         <v>24</v>
@@ -2873,7 +2873,7 @@
         <v>2</v>
       </c>
       <c r="AX13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY13" t="n">
         <v>27</v>
@@ -2885,10 +2885,10 @@
         <v>23</v>
       </c>
       <c r="BB13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2900,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-7-2020-21</t>
+          <t>2021-01-07</t>
         </is>
       </c>
     </row>
@@ -3001,19 +3001,19 @@
         <v>2</v>
       </c>
       <c r="AF14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ14" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK14" t="n">
         <v>12</v>
@@ -3031,19 +3031,19 @@
         <v>17</v>
       </c>
       <c r="AP14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ14" t="n">
         <v>1</v>
       </c>
       <c r="AR14" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AS14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AT14" t="n">
         <v>25</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>26</v>
       </c>
       <c r="AU14" t="n">
         <v>15</v>
@@ -3052,7 +3052,7 @@
         <v>10</v>
       </c>
       <c r="AW14" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX14" t="n">
         <v>13</v>
@@ -3082,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-7-2020-21</t>
+          <t>2021-01-07</t>
         </is>
       </c>
     </row>
@@ -3099,160 +3099,160 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E15" t="n">
         <v>6</v>
       </c>
       <c r="F15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G15" t="n">
-        <v>0.667</v>
+        <v>0.75</v>
       </c>
       <c r="H15" t="n">
         <v>48</v>
       </c>
       <c r="I15" t="n">
-        <v>43.2</v>
+        <v>43.3</v>
       </c>
       <c r="J15" t="n">
-        <v>88.2</v>
+        <v>88.5</v>
       </c>
       <c r="K15" t="n">
-        <v>0.49</v>
+        <v>0.489</v>
       </c>
       <c r="L15" t="n">
-        <v>12.2</v>
+        <v>12.5</v>
       </c>
       <c r="M15" t="n">
-        <v>31.7</v>
+        <v>31.9</v>
       </c>
       <c r="N15" t="n">
-        <v>0.386</v>
+        <v>0.392</v>
       </c>
       <c r="O15" t="n">
-        <v>14.9</v>
+        <v>15.1</v>
       </c>
       <c r="P15" t="n">
-        <v>19.8</v>
+        <v>19.6</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.753</v>
+        <v>0.771</v>
       </c>
       <c r="R15" t="n">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="S15" t="n">
         <v>38.9</v>
       </c>
       <c r="T15" t="n">
-        <v>48.8</v>
+        <v>48.9</v>
       </c>
       <c r="U15" t="n">
-        <v>25.3</v>
+        <v>25.9</v>
       </c>
       <c r="V15" t="n">
-        <v>15.3</v>
+        <v>15.6</v>
       </c>
       <c r="W15" t="n">
-        <v>6.1</v>
+        <v>6.6</v>
       </c>
       <c r="X15" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="Z15" t="n">
-        <v>18.8</v>
+        <v>18.6</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.6</v>
+        <v>20.1</v>
       </c>
       <c r="AB15" t="n">
-        <v>113.6</v>
+        <v>114.1</v>
       </c>
       <c r="AC15" t="n">
-        <v>7.9</v>
+        <v>10</v>
       </c>
       <c r="AD15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE15" t="n">
         <v>2</v>
       </c>
       <c r="AF15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AG15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AH15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI15" t="n">
         <v>4</v>
       </c>
       <c r="AJ15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL15" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AM15" t="n">
         <v>22</v>
       </c>
       <c r="AN15" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AO15" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AP15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ15" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AR15" t="n">
         <v>14</v>
       </c>
       <c r="AS15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU15" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AV15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AW15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AX15" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AY15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ15" t="n">
         <v>7</v>
       </c>
       <c r="BA15" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="BB15" t="n">
         <v>11</v>
       </c>
       <c r="BC15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3264,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-7-2020-21</t>
+          <t>2021-01-07</t>
         </is>
       </c>
     </row>
@@ -3281,157 +3281,157 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E16" t="n">
         <v>2</v>
       </c>
       <c r="F16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G16" t="n">
-        <v>0.25</v>
+        <v>0.286</v>
       </c>
       <c r="H16" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="I16" t="n">
-        <v>40.3</v>
+        <v>40.9</v>
       </c>
       <c r="J16" t="n">
-        <v>91.8</v>
+        <v>93</v>
       </c>
       <c r="K16" t="n">
         <v>0.439</v>
       </c>
       <c r="L16" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="M16" t="n">
-        <v>32.6</v>
+        <v>32.9</v>
       </c>
       <c r="N16" t="n">
-        <v>0.33</v>
+        <v>0.326</v>
       </c>
       <c r="O16" t="n">
-        <v>13.5</v>
+        <v>14.4</v>
       </c>
       <c r="P16" t="n">
-        <v>17.5</v>
+        <v>18.9</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.771</v>
+        <v>0.765</v>
       </c>
       <c r="R16" t="n">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="S16" t="n">
-        <v>36.3</v>
+        <v>36.1</v>
       </c>
       <c r="T16" t="n">
-        <v>46.8</v>
+        <v>46.6</v>
       </c>
       <c r="U16" t="n">
-        <v>25.1</v>
+        <v>24.9</v>
       </c>
       <c r="V16" t="n">
-        <v>15.4</v>
+        <v>15</v>
       </c>
       <c r="W16" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="X16" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Y16" t="n">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="Z16" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="AA16" t="n">
-        <v>17.1</v>
+        <v>17.6</v>
       </c>
       <c r="AB16" t="n">
-        <v>104.8</v>
+        <v>106.9</v>
       </c>
       <c r="AC16" t="n">
-        <v>-5.1</v>
+        <v>-5.3</v>
       </c>
       <c r="AD16" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="AE16" t="n">
         <v>25</v>
       </c>
       <c r="AF16" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AG16" t="n">
         <v>26</v>
       </c>
       <c r="AH16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ16" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AK16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL16" t="n">
         <v>25</v>
       </c>
       <c r="AM16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AO16" t="n">
         <v>27</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>30</v>
       </c>
       <c r="AP16" t="n">
         <v>30</v>
       </c>
       <c r="AQ16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR16" t="n">
         <v>12</v>
       </c>
       <c r="AS16" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AT16" t="n">
         <v>10</v>
       </c>
       <c r="AU16" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AV16" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AW16" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AX16" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AY16" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AZ16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA16" t="n">
         <v>30</v>
       </c>
       <c r="BB16" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="BC16" t="n">
         <v>26</v>
@@ -3446,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-7-2020-21</t>
+          <t>2021-01-07</t>
         </is>
       </c>
     </row>
@@ -3541,31 +3541,31 @@
         <v>-1.9</v>
       </c>
       <c r="AD17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI17" t="n">
         <v>27</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>28</v>
       </c>
       <c r="AJ17" t="n">
         <v>30</v>
       </c>
       <c r="AK17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM17" t="n">
         <v>18</v>
@@ -3580,13 +3580,13 @@
         <v>15</v>
       </c>
       <c r="AQ17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR17" t="n">
         <v>30</v>
       </c>
       <c r="AS17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT17" t="n">
         <v>28</v>
@@ -3598,25 +3598,25 @@
         <v>29</v>
       </c>
       <c r="AW17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AX17" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AY17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA17" t="n">
         <v>12</v>
       </c>
       <c r="BB17" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BC17" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3628,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-7-2020-21</t>
+          <t>2021-01-07</t>
         </is>
       </c>
     </row>
@@ -3723,19 +3723,19 @@
         <v>13.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AE18" t="n">
         <v>8</v>
       </c>
       <c r="AF18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG18" t="n">
         <v>8</v>
       </c>
       <c r="AH18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI18" t="n">
         <v>1</v>
@@ -3756,10 +3756,10 @@
         <v>1</v>
       </c>
       <c r="AO18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ18" t="n">
         <v>21</v>
@@ -3774,10 +3774,10 @@
         <v>5</v>
       </c>
       <c r="AU18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW18" t="n">
         <v>4</v>
@@ -3789,7 +3789,7 @@
         <v>17</v>
       </c>
       <c r="AZ18" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA18" t="n">
         <v>23</v>
@@ -3810,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-7-2020-21</t>
+          <t>2021-01-07</t>
         </is>
       </c>
     </row>
@@ -3827,157 +3827,157 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E19" t="n">
         <v>2</v>
       </c>
       <c r="F19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G19" t="n">
-        <v>0.25</v>
+        <v>0.286</v>
       </c>
       <c r="H19" t="n">
         <v>48</v>
       </c>
       <c r="I19" t="n">
-        <v>40.6</v>
+        <v>40.9</v>
       </c>
       <c r="J19" t="n">
-        <v>92.3</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="K19" t="n">
-        <v>0.44</v>
+        <v>0.443</v>
       </c>
       <c r="L19" t="n">
-        <v>11.4</v>
+        <v>11</v>
       </c>
       <c r="M19" t="n">
-        <v>35.6</v>
+        <v>34.9</v>
       </c>
       <c r="N19" t="n">
-        <v>0.319</v>
+        <v>0.316</v>
       </c>
       <c r="O19" t="n">
-        <v>16.1</v>
+        <v>14.9</v>
       </c>
       <c r="P19" t="n">
-        <v>21.8</v>
+        <v>20.1</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.741</v>
+        <v>0.738</v>
       </c>
       <c r="R19" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="S19" t="n">
-        <v>30.9</v>
+        <v>30.6</v>
       </c>
       <c r="T19" t="n">
-        <v>43</v>
+        <v>42.3</v>
       </c>
       <c r="U19" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="V19" t="n">
-        <v>14.8</v>
+        <v>14.6</v>
       </c>
       <c r="W19" t="n">
-        <v>9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X19" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Y19" t="n">
         <v>5.6</v>
       </c>
       <c r="Z19" t="n">
-        <v>21.5</v>
+        <v>21.9</v>
       </c>
       <c r="AA19" t="n">
-        <v>20</v>
+        <v>19.6</v>
       </c>
       <c r="AB19" t="n">
-        <v>108.8</v>
+        <v>107.6</v>
       </c>
       <c r="AC19" t="n">
-        <v>-13.1</v>
+        <v>-12.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="AE19" t="n">
         <v>25</v>
       </c>
       <c r="AF19" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AG19" t="n">
         <v>26</v>
       </c>
       <c r="AH19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI19" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AK19" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AL19" t="n">
         <v>24</v>
       </c>
       <c r="AM19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AN19" t="n">
         <v>29</v>
       </c>
       <c r="AO19" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AP19" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AQ19" t="n">
         <v>23</v>
       </c>
       <c r="AR19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS19" t="n">
         <v>30</v>
       </c>
       <c r="AT19" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AU19" t="n">
         <v>20</v>
       </c>
       <c r="AV19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW19" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AX19" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AY19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>21</v>
+      </c>
+      <c r="BB19" t="n">
         <v>22</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>22</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>18</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>21</v>
       </c>
       <c r="BC19" t="n">
         <v>30</v>
@@ -3992,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-7-2020-21</t>
+          <t>2021-01-07</t>
         </is>
       </c>
     </row>
@@ -4087,31 +4087,31 @@
         <v>1.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AE20" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AF20" t="n">
         <v>10</v>
       </c>
       <c r="AG20" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AH20" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AI20" t="n">
         <v>23</v>
       </c>
       <c r="AJ20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK20" t="n">
         <v>17</v>
       </c>
       <c r="AL20" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM20" t="n">
         <v>24</v>
@@ -4123,7 +4123,7 @@
         <v>10</v>
       </c>
       <c r="AP20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ20" t="n">
         <v>27</v>
@@ -4132,7 +4132,7 @@
         <v>6</v>
       </c>
       <c r="AS20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT20" t="n">
         <v>1</v>
@@ -4144,10 +4144,10 @@
         <v>25</v>
       </c>
       <c r="AW20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AY20" t="n">
         <v>17</v>
@@ -4156,10 +4156,10 @@
         <v>1</v>
       </c>
       <c r="BA20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BC20" t="n">
         <v>11</v>
@@ -4174,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-7-2020-21</t>
+          <t>2021-01-07</t>
         </is>
       </c>
     </row>
@@ -4269,19 +4269,19 @@
         <v>-0.1</v>
       </c>
       <c r="AD21" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AE21" t="n">
         <v>8</v>
       </c>
       <c r="AF21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG21" t="n">
         <v>8</v>
       </c>
       <c r="AH21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI21" t="n">
         <v>23</v>
@@ -4299,13 +4299,13 @@
         <v>30</v>
       </c>
       <c r="AN21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO21" t="n">
         <v>19</v>
       </c>
       <c r="AP21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ21" t="n">
         <v>18</v>
@@ -4326,19 +4326,19 @@
         <v>27</v>
       </c>
       <c r="AW21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AX21" t="n">
         <v>16</v>
       </c>
       <c r="AY21" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AZ21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB21" t="n">
         <v>28</v>
@@ -4356,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-7-2020-21</t>
+          <t>2021-01-07</t>
         </is>
       </c>
     </row>
@@ -4451,28 +4451,28 @@
         <v>-8.699999999999999</v>
       </c>
       <c r="AD22" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="AE22" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AF22" t="n">
         <v>10</v>
       </c>
       <c r="AG22" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AH22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI22" t="n">
         <v>30</v>
       </c>
       <c r="AJ22" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK22" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL22" t="n">
         <v>8</v>
@@ -4481,13 +4481,13 @@
         <v>3</v>
       </c>
       <c r="AN22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO22" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AP22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ22" t="n">
         <v>29</v>
@@ -4508,7 +4508,7 @@
         <v>26</v>
       </c>
       <c r="AW22" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX22" t="n">
         <v>11</v>
@@ -4520,7 +4520,7 @@
         <v>3</v>
       </c>
       <c r="BA22" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BB22" t="n">
         <v>30</v>
@@ -4538,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-7-2020-21</t>
+          <t>2021-01-07</t>
         </is>
       </c>
     </row>
@@ -4633,28 +4633,28 @@
         <v>4</v>
       </c>
       <c r="AD23" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AE23" t="n">
         <v>2</v>
       </c>
       <c r="AF23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG23" t="n">
         <v>2</v>
       </c>
       <c r="AH23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ23" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AK23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL23" t="n">
         <v>27</v>
@@ -4663,7 +4663,7 @@
         <v>28</v>
       </c>
       <c r="AN23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO23" t="n">
         <v>13</v>
@@ -4675,28 +4675,28 @@
         <v>3</v>
       </c>
       <c r="AR23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT23" t="n">
         <v>6</v>
       </c>
       <c r="AU23" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AV23" t="n">
         <v>4</v>
       </c>
       <c r="AW23" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX23" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AY23" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ23" t="n">
         <v>6</v>
@@ -4720,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-7-2020-21</t>
+          <t>2021-01-07</t>
         </is>
       </c>
     </row>
@@ -4737,85 +4737,85 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E24" t="n">
         <v>7</v>
       </c>
       <c r="F24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>0.778</v>
+        <v>0.875</v>
       </c>
       <c r="H24" t="n">
         <v>48</v>
       </c>
       <c r="I24" t="n">
-        <v>41.7</v>
+        <v>41.8</v>
       </c>
       <c r="J24" t="n">
-        <v>85.7</v>
+        <v>85.5</v>
       </c>
       <c r="K24" t="n">
-        <v>0.486</v>
+        <v>0.488</v>
       </c>
       <c r="L24" t="n">
-        <v>12</v>
+        <v>12.4</v>
       </c>
       <c r="M24" t="n">
-        <v>31.3</v>
+        <v>32</v>
       </c>
       <c r="N24" t="n">
-        <v>0.383</v>
+        <v>0.387</v>
       </c>
       <c r="O24" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="P24" t="n">
-        <v>24.7</v>
+        <v>25.3</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.761</v>
+        <v>0.748</v>
       </c>
       <c r="R24" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="S24" t="n">
-        <v>39</v>
+        <v>38.5</v>
       </c>
       <c r="T24" t="n">
         <v>47</v>
       </c>
       <c r="U24" t="n">
-        <v>26.1</v>
+        <v>26.5</v>
       </c>
       <c r="V24" t="n">
-        <v>17.4</v>
+        <v>17.1</v>
       </c>
       <c r="W24" t="n">
-        <v>8.699999999999999</v>
+        <v>9</v>
       </c>
       <c r="X24" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="Y24" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="Z24" t="n">
-        <v>20.6</v>
+        <v>20</v>
       </c>
       <c r="AA24" t="n">
-        <v>22.2</v>
+        <v>22.9</v>
       </c>
       <c r="AB24" t="n">
-        <v>114.1</v>
+        <v>114.8</v>
       </c>
       <c r="AC24" t="n">
-        <v>6.3</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE24" t="n">
         <v>1</v>
@@ -4827,7 +4827,7 @@
         <v>1</v>
       </c>
       <c r="AH24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI24" t="n">
         <v>9</v>
@@ -4839,58 +4839,58 @@
         <v>5</v>
       </c>
       <c r="AL24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>9</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>20</v>
+      </c>
+      <c r="AR24" t="n">
         <v>22</v>
       </c>
-      <c r="AM24" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>9</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>11</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>16</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>24</v>
-      </c>
       <c r="AS24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT24" t="n">
         <v>8</v>
       </c>
       <c r="AU24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV24" t="n">
         <v>28</v>
       </c>
       <c r="AW24" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="AX24" t="n">
         <v>1</v>
       </c>
       <c r="AY24" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AZ24" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="BA24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB24" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BC24" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4902,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-7-2020-21</t>
+          <t>2021-01-07</t>
         </is>
       </c>
     </row>
@@ -4997,22 +4997,22 @@
         <v>7.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AE25" t="n">
         <v>2</v>
       </c>
       <c r="AF25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG25" t="n">
         <v>2</v>
       </c>
       <c r="AH25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI25" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ25" t="n">
         <v>28</v>
@@ -5027,25 +5027,25 @@
         <v>11</v>
       </c>
       <c r="AN25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP25" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AQ25" t="n">
         <v>2</v>
       </c>
       <c r="AR25" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AS25" t="n">
         <v>21</v>
       </c>
       <c r="AT25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AU25" t="n">
         <v>9</v>
@@ -5057,13 +5057,13 @@
         <v>30</v>
       </c>
       <c r="AX25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY25" t="n">
         <v>3</v>
       </c>
       <c r="AZ25" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA25" t="n">
         <v>16</v>
@@ -5072,7 +5072,7 @@
         <v>19</v>
       </c>
       <c r="BC25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5084,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-7-2020-21</t>
+          <t>2021-01-07</t>
         </is>
       </c>
     </row>
@@ -5101,106 +5101,106 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F26" t="n">
         <v>4</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5</v>
+        <v>0.429</v>
       </c>
       <c r="H26" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="I26" t="n">
-        <v>41</v>
+        <v>39.9</v>
       </c>
       <c r="J26" t="n">
-        <v>92</v>
+        <v>92.3</v>
       </c>
       <c r="K26" t="n">
-        <v>0.446</v>
+        <v>0.432</v>
       </c>
       <c r="L26" t="n">
-        <v>16.3</v>
+        <v>16</v>
       </c>
       <c r="M26" t="n">
-        <v>42.5</v>
+        <v>42.7</v>
       </c>
       <c r="N26" t="n">
-        <v>0.382</v>
+        <v>0.375</v>
       </c>
       <c r="O26" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="P26" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.781</v>
+        <v>0.775</v>
       </c>
       <c r="R26" t="n">
-        <v>8.1</v>
+        <v>8.4</v>
       </c>
       <c r="S26" t="n">
-        <v>35.9</v>
+        <v>35.6</v>
       </c>
       <c r="T26" t="n">
         <v>44</v>
       </c>
       <c r="U26" t="n">
-        <v>22.3</v>
+        <v>21.9</v>
       </c>
       <c r="V26" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
       <c r="W26" t="n">
-        <v>8.300000000000001</v>
+        <v>8</v>
       </c>
       <c r="X26" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="Y26" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="Z26" t="n">
-        <v>20.5</v>
+        <v>20.1</v>
       </c>
       <c r="AA26" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="AB26" t="n">
-        <v>117</v>
+        <v>114.4</v>
       </c>
       <c r="AC26" t="n">
-        <v>-1</v>
+        <v>-3.7</v>
       </c>
       <c r="AD26" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="AE26" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AF26" t="n">
         <v>10</v>
       </c>
       <c r="AG26" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AH26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI26" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AJ26" t="n">
         <v>4</v>
       </c>
       <c r="AK26" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AL26" t="n">
         <v>2</v>
@@ -5221,40 +5221,40 @@
         <v>11</v>
       </c>
       <c r="AR26" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AT26" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AU26" t="n">
         <v>26</v>
       </c>
       <c r="AV26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW26" t="n">
         <v>12</v>
       </c>
       <c r="AX26" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AY26" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AZ26" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA26" t="n">
         <v>14</v>
       </c>
       <c r="BB26" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BC26" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5266,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-7-2020-21</t>
+          <t>2021-01-07</t>
         </is>
       </c>
     </row>
@@ -5361,37 +5361,37 @@
         <v>-4.9</v>
       </c>
       <c r="AD27" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AE27" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AF27" t="n">
         <v>10</v>
       </c>
       <c r="AG27" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AH27" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AI27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ27" t="n">
         <v>10</v>
       </c>
       <c r="AK27" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL27" t="n">
         <v>26</v>
       </c>
       <c r="AM27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AN27" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO27" t="n">
         <v>5</v>
@@ -5418,7 +5418,7 @@
         <v>7</v>
       </c>
       <c r="AW27" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AX27" t="n">
         <v>13</v>
@@ -5427,7 +5427,7 @@
         <v>24</v>
       </c>
       <c r="AZ27" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA27" t="n">
         <v>11</v>
@@ -5448,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-7-2020-21</t>
+          <t>2021-01-07</t>
         </is>
       </c>
     </row>
@@ -5465,112 +5465,112 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F28" t="n">
         <v>4</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5</v>
+        <v>0.429</v>
       </c>
       <c r="H28" t="n">
         <v>48</v>
       </c>
       <c r="I28" t="n">
-        <v>42.5</v>
+        <v>42.4</v>
       </c>
       <c r="J28" t="n">
-        <v>93.59999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="K28" t="n">
-        <v>0.454</v>
+        <v>0.452</v>
       </c>
       <c r="L28" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="M28" t="n">
-        <v>30.9</v>
+        <v>30.3</v>
       </c>
       <c r="N28" t="n">
-        <v>0.405</v>
+        <v>0.396</v>
       </c>
       <c r="O28" t="n">
-        <v>14.8</v>
+        <v>14.6</v>
       </c>
       <c r="P28" t="n">
-        <v>18.9</v>
+        <v>19.1</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.781</v>
+        <v>0.761</v>
       </c>
       <c r="R28" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="S28" t="n">
-        <v>36.1</v>
+        <v>36.4</v>
       </c>
       <c r="T28" t="n">
-        <v>45.1</v>
+        <v>45.9</v>
       </c>
       <c r="U28" t="n">
-        <v>26.5</v>
+        <v>26.3</v>
       </c>
       <c r="V28" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="W28" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="X28" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="Y28" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="Z28" t="n">
-        <v>17.9</v>
+        <v>18.3</v>
       </c>
       <c r="AA28" t="n">
         <v>19.6</v>
       </c>
       <c r="AB28" t="n">
-        <v>112.3</v>
+        <v>111.4</v>
       </c>
       <c r="AC28" t="n">
-        <v>-1.9</v>
+        <v>-3.4</v>
       </c>
       <c r="AD28" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="AE28" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AF28" t="n">
         <v>10</v>
       </c>
       <c r="AG28" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AH28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI28" t="n">
         <v>8</v>
       </c>
       <c r="AJ28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK28" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL28" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AM28" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AN28" t="n">
         <v>3</v>
@@ -5579,47 +5579,47 @@
         <v>26</v>
       </c>
       <c r="AP28" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AQ28" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AR28" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AS28" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AT28" t="n">
         <v>12</v>
       </c>
       <c r="AU28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW28" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AX28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY28" t="n">
         <v>30</v>
       </c>
       <c r="AZ28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA28" t="n">
+        <v>21</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>15</v>
+      </c>
+      <c r="BC28" t="n">
         <v>20</v>
       </c>
-      <c r="BB28" t="n">
-        <v>14</v>
-      </c>
-      <c r="BC28" t="n">
-        <v>19</v>
-      </c>
       <c r="BD28" t="n">
         <v>10</v>
       </c>
@@ -5630,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-7-2020-21</t>
+          <t>2021-01-07</t>
         </is>
       </c>
     </row>
@@ -5725,25 +5725,25 @@
         <v>-4.7</v>
       </c>
       <c r="AD29" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="AE29" t="n">
         <v>29</v>
       </c>
       <c r="AF29" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AG29" t="n">
         <v>29</v>
       </c>
       <c r="AH29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI29" t="n">
         <v>29</v>
       </c>
       <c r="AJ29" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AK29" t="n">
         <v>30</v>
@@ -5767,22 +5767,22 @@
         <v>9</v>
       </c>
       <c r="AR29" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AS29" t="n">
         <v>23</v>
       </c>
       <c r="AT29" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AU29" t="n">
         <v>24</v>
       </c>
       <c r="AV29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX29" t="n">
         <v>8</v>
@@ -5812,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-7-2020-21</t>
+          <t>2021-01-07</t>
         </is>
       </c>
     </row>
@@ -5907,31 +5907,31 @@
         <v>-1.8</v>
       </c>
       <c r="AD30" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AE30" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AF30" t="n">
         <v>10</v>
       </c>
       <c r="AG30" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AH30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI30" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK30" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AM30" t="n">
         <v>5</v>
@@ -5940,7 +5940,7 @@
         <v>13</v>
       </c>
       <c r="AO30" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AP30" t="n">
         <v>24</v>
@@ -5958,10 +5958,10 @@
         <v>3</v>
       </c>
       <c r="AU30" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AV30" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW30" t="n">
         <v>29</v>
@@ -5979,10 +5979,10 @@
         <v>28</v>
       </c>
       <c r="BB30" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BC30" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5994,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-7-2020-21</t>
+          <t>2021-01-07</t>
         </is>
       </c>
     </row>
@@ -6089,19 +6089,19 @@
         <v>-2.1</v>
       </c>
       <c r="AD31" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AE31" t="n">
         <v>25</v>
       </c>
       <c r="AF31" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AG31" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AH31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI31" t="n">
         <v>2</v>
@@ -6110,13 +6110,13 @@
         <v>7</v>
       </c>
       <c r="AK31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL31" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AN31" t="n">
         <v>8</v>
@@ -6131,19 +6131,19 @@
         <v>22</v>
       </c>
       <c r="AR31" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AS31" t="n">
         <v>24</v>
       </c>
       <c r="AT31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AU31" t="n">
         <v>2</v>
       </c>
       <c r="AV31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AW31" t="n">
         <v>18</v>
@@ -6164,7 +6164,7 @@
         <v>2</v>
       </c>
       <c r="BC31" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6176,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-7-2020-21</t>
+          <t>2021-01-07</t>
         </is>
       </c>
     </row>
